--- a/otherPage/ReversiblePuzzle/設計書.xlsx
+++ b/otherPage/ReversiblePuzzle/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\homePage\otherPage\ReversiblePuzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBA430C-C4EB-42D8-9A57-8C28DD286353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BF677-5756-4443-ACB3-F3DEE02895DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="画面（スマホ版）" sheetId="2" r:id="rId3"/>
     <sheet name="概要" sheetId="4" r:id="rId4"/>
     <sheet name="基本設計（HTML, CSS）" sheetId="6" r:id="rId5"/>
+    <sheet name="基本設計（javascript）" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>反転パズル</t>
     <rPh sb="0" eb="2">
@@ -291,52 +292,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>点線で囲まれたブロック</t>
-    <rPh sb="0" eb="2">
-      <t>テンセン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル全体のブロック</t>
-    <rPh sb="3" eb="5">
-      <t>ゼンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パズル単体</t>
-    <rPh sb="3" eb="5">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・・・</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各パラメータ表示ブロック</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトルのブロック</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -397,6 +353,252 @@
   </si>
   <si>
     <t>ReversiblePuzzle.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;タイトルのブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/div&gt;タイトルのブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;点線で囲まれたブロック</t>
+    <rPh sb="5" eb="7">
+      <t>テンセン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/div&gt;点線で囲まれたブロック</t>
+    <rPh sb="6" eb="8">
+      <t>テンセン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;パズル全体のブロック</t>
+    <rPh sb="8" eb="10">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/div&gt;パズル全体のブロック</t>
+    <rPh sb="9" eb="11">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;各パラメータ表示ブロック</t>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/div&gt;各パラメータ表示ブロック</t>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;パズル単体&lt;/div&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;経過時間：&lt;span&gt;XXX&lt;/span&gt;秒&lt;/div&gt;</t>
+    <rPh sb="5" eb="9">
+      <t>ケイカジカン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div&gt;反転回数：&lt;span&gt;XXX&lt;/span&gt;回&lt;/div&gt;</t>
+    <rPh sb="5" eb="9">
+      <t>ハンテンカイスウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h2&gt;遊び方&lt;/h2&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/ul&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;説明&lt;/li&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reversiblePuzzle.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メイン処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>puzzleLogic.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル関係ロジック</t>
+    <rPh sb="3" eb="5">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス一覧</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバ変数</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean allGreenFlg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkGroupState()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズルの状態を調べ、すべてそろっているならtrueを返す</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@return false パズルがそろっていない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@return true パズルがそろっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int[][] puzzleGroup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Puzzle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@params col 列</t>
+    <rPh sb="12" eb="13">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@params row 行</t>
+    <rPh sb="12" eb="13">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, -1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true, false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定の位置のパズルを反転させる、隣のパズルも反転させる</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@param rvsNextPzlFlg 隣のパズルを反転させるフラグ</t>
+    <rPh sb="21" eb="22">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reversePuzzle(col, row, rvsNxtPzlFlg)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -404,7 +606,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,14 +643,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -764,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -849,8 +1043,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3199,7 +3394,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <cols>
-    <col min="21" max="21" width="3.69921875" style="55"/>
+    <col min="21" max="21" width="3.69921875" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22">
@@ -3233,7 +3428,7 @@
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:22">
@@ -3241,7 +3436,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:22">
@@ -3249,13 +3444,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="U11" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="54" t="s">
         <v>25</v>
       </c>
       <c r="V11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:22">
@@ -3263,7 +3458,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3274,15 +3469,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CCB736-197E-4817-8713-F930A1909788}">
-  <dimension ref="B2:F36"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="54" t="s">
-        <v>56</v>
+      <c r="B2" s="32" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -3317,7 +3512,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -3332,106 +3527,116 @@
     </row>
     <row r="14" spans="2:5">
       <c r="D14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="D15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="E16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
       <c r="F17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
       <c r="F18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
       <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
       <c r="E20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7">
       <c r="E21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7">
       <c r="F22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7">
       <c r="F23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7">
       <c r="E24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7">
       <c r="D25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7">
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7">
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7">
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7">
+      <c r="G32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6">
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6">
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="F30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6">
-      <c r="F31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
+    <row r="33" spans="3:6">
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
       <c r="D34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="D36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
-      <c r="C35" t="s">
+    <row r="37" spans="3:6">
+      <c r="C37" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
+    <row r="38" spans="3:6">
+      <c r="C38" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3440,4 +3645,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0848672C-D828-48C3-B55F-683E970F86C5}">
+  <dimension ref="B2:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="3.69921875" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="C8" s="56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="D9" s="55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="E10" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="E11" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="D12" s="55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="E13" s="56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="F14" s="56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="F15" s="56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="F16" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="E17" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="F18" s="56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="F19" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="55"/>
+      <c r="F20" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="F21" s="56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="55"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/otherPage/ReversiblePuzzle/設計書.xlsx
+++ b/otherPage/ReversiblePuzzle/設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\homePage\otherPage\ReversiblePuzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BF677-5756-4443-ACB3-F3DEE02895DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128E1492-EE75-436F-BE20-49377CA0480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t>反転パズル</t>
     <rPh sb="0" eb="2">
@@ -561,14 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1, -1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>true, false</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>指定の位置のパズルを反転させる、隣のパズルも反転させる</t>
     <rPh sb="0" eb="2">
       <t>シテイ</t>
@@ -588,17 +580,95 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>@param rvsNextPzlFlg 隣のパズルを反転させるフラグ</t>
-    <rPh sb="21" eb="22">
+    <t>reversePuzzle(col, row, rvsNxtPzlFlg)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>constructor()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンストラクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doReversePuzzle()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Puzzle.reversePuzzle(col, row)を呼び出す</t>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@params rvsNextPzlFlg 隣のパズルを反転させるフラグ</t>
+    <rPh sb="22" eb="23">
       <t>トナリ</t>
     </rPh>
-    <rPh sb="27" eb="29">
+    <rPh sb="28" eb="30">
       <t>ハンテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>reversePuzzle(col, row, rvsNxtPzlFlg)</t>
+    <t>メソッド一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currentTime_ms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の経過時間</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケイカジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>currentReverseNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数一覧、初期値</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の反転回数</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ハンテンカイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameClearFlg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリアしたかどうかのフラグ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3649,9 +3719,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0848672C-D828-48C3-B55F-683E970F86C5}">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <cols>
@@ -3666,101 +3738,160 @@
         <v>67</v>
       </c>
     </row>
+    <row r="3" spans="2:10">
+      <c r="C3" s="55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="D4" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="55" t="s">
+      <c r="D5" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="D6" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="C11" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="55"/>
+      <c r="D12" s="56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="C13" s="55"/>
+      <c r="E13" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="E14" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="E15" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H20" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
-      <c r="C7" s="55" t="s">
+    <row r="22" spans="2:8">
+      <c r="C22" s="55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="C8" s="56" t="s">
+    <row r="23" spans="2:8">
+      <c r="D23" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="D9" s="55" t="s">
+    <row r="24" spans="2:8">
+      <c r="E24" s="55" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="E10" s="56" t="s">
+    <row r="25" spans="2:8">
+      <c r="F25" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="J10" s="56" t="s">
+    </row>
+    <row r="26" spans="2:8">
+      <c r="F26" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="E27" s="55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="F28" s="56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="G29" s="56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="G30" s="56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="G31" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="F32" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="G33" s="56" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="E11" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="D12" s="55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="E13" s="56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="F14" s="56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="F15" s="56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="F16" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6">
-      <c r="E17" s="56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6">
-      <c r="F18" s="56" t="s">
+    <row r="34" spans="4:7">
+      <c r="G34" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="E35" s="55"/>
+      <c r="G35" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="G36" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="F37" s="56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
-      <c r="F19" s="56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6">
-      <c r="D20" s="55"/>
-      <c r="F20" s="56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6">
-      <c r="F21" s="56" t="s">
+    <row r="38" spans="4:7">
+      <c r="D38" s="55"/>
+      <c r="G38" s="56" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="4:6">
-      <c r="D23" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/otherPage/ReversiblePuzzle/設計書.xlsx
+++ b/otherPage/ReversiblePuzzle/設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\homePage\otherPage\ReversiblePuzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128E1492-EE75-436F-BE20-49377CA0480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA2A8B0-1C2A-4C5E-8E86-81033C6EDE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>反転パズル</t>
     <rPh sb="0" eb="2">
@@ -592,10 +592,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>doReversePuzzle()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Puzzle.reversePuzzle(col, row)を呼び出す</t>
     <rPh sb="31" eb="32">
       <t>ヨ</t>
@@ -627,16 +623,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在の経過時間</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ケイカジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>currentReverseNum</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -669,6 +655,132 @@
   </si>
   <si>
     <t>ゲームクリアしたかどうかのフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doReversePuzzle(col, row)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setValueToHtml(id, value)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定されたidのタグに値を設定する</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@params value タグに設定する値</t>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@params id タグのid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>initAll()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての変数とインスタンスを初期化する</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>puzzle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Puzzleクラスのインスタンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showGameClearDialog()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリアした場合にアラートを表示する</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameClearParams</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア時の連想配列</t>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clearTime_ms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の経過時間(ms)</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケイカジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clearReverseNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア時の経過時間(ms)</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ケイカジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア時の反転回数</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>ハンテンカイスウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3719,10 +3831,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0848672C-D828-48C3-B55F-683E970F86C5}">
-  <dimension ref="B2:J38"/>
+  <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
@@ -3740,48 +3852,81 @@
     </row>
     <row r="3" spans="2:10">
       <c r="C3" s="55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="D4" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="D5" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="56" t="s">
         <v>92</v>
-      </c>
-      <c r="J5" s="56" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="D6" s="56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="C7" s="55"/>
+      <c r="D7" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="D8" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="E9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="E10" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="C11" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="C12" s="55"/>
       <c r="D12" s="56" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="C13" s="55"/>
       <c r="E13" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -3794,98 +3939,138 @@
         <v>81</v>
       </c>
     </row>
+    <row r="16" spans="2:10">
+      <c r="D16" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="E17" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="E18" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="E19" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="55" t="s">
+      <c r="D20" s="56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="E21" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="D22" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="E23" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="55" t="s">
+      <c r="H25" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="C22" s="55" t="s">
+    <row r="27" spans="2:8">
+      <c r="C27" s="55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="D23" s="56" t="s">
+    <row r="28" spans="2:8">
+      <c r="D28" s="56" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
-      <c r="E24" s="55" t="s">
+    <row r="29" spans="2:8">
+      <c r="E29" s="55" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
-      <c r="F25" s="56" t="s">
+    <row r="30" spans="2:8">
+      <c r="F30" s="56" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
-      <c r="F26" s="56" t="s">
+    <row r="31" spans="2:8">
+      <c r="F31" s="56" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
-      <c r="E27" s="55" t="s">
+    <row r="32" spans="2:8">
+      <c r="E32" s="55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="F28" s="56" t="s">
+    <row r="33" spans="4:7">
+      <c r="F33" s="56" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="G29" s="56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="G30" s="56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="G31" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="F32" s="56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7">
-      <c r="G33" s="56" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="G34" s="56" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="4:7">
-      <c r="E35" s="55"/>
       <c r="G35" s="56" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="4:7">
       <c r="G36" s="56" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="4:7">
       <c r="F37" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="G38" s="56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="G39" s="56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="E40" s="55"/>
+      <c r="G40" s="56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="G41" s="56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="F42" s="56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="4:7">
-      <c r="D38" s="55"/>
-      <c r="G38" s="56" t="s">
+    <row r="43" spans="4:7">
+      <c r="D43" s="55"/>
+      <c r="G43" s="56" t="s">
         <v>85</v>
       </c>
     </row>

--- a/otherPage/ReversiblePuzzle/設計書.xlsx
+++ b/otherPage/ReversiblePuzzle/設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\homePage\otherPage\ReversiblePuzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA2A8B0-1C2A-4C5E-8E86-81033C6EDE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFD36FE-1082-4034-BA43-EC938A58611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
   <si>
     <t>反転パズル</t>
     <rPh sb="0" eb="2">
@@ -334,13 +334,6 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これが多分一番シンプルでやりやすそう</t>
-    <rPh sb="3" eb="7">
-      <t>タブンイチバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3570,7 +3563,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B150CF18-244A-4015-8632-876C4B316E5B}">
-  <dimension ref="B2:V12"/>
+  <dimension ref="B2:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3579,12 +3572,12 @@
     <col min="21" max="21" width="3.69921875" style="54"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:4">
       <c r="B2" s="32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:4">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -3592,7 +3585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:4">
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -3600,7 +3593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:4">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -3608,12 +3601,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:4">
       <c r="B9" s="32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:4">
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -3621,26 +3614,20 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:4">
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="U11" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="V11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22">
+    </row>
+    <row r="12" spans="2:4">
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3653,13 +3640,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CCB736-197E-4817-8713-F930A1909788}">
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -3694,7 +3683,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -3709,27 +3698,27 @@
     </row>
     <row r="14" spans="2:5">
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="4:7">
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="4:7">
       <c r="F18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="4:7">
@@ -3739,57 +3728,57 @@
     </row>
     <row r="20" spans="4:7">
       <c r="E20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="4:7">
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="4:7">
       <c r="F22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="4:7">
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="4:7">
       <c r="E24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="4:7">
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="4:7">
       <c r="D27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="4:7">
       <c r="E28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="4:7">
       <c r="F29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="4:7">
       <c r="G30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="4:7">
       <c r="G31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="4:7">
@@ -3799,12 +3788,12 @@
     </row>
     <row r="33" spans="3:6">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="D34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="3:6">
@@ -3833,9 +3822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0848672C-D828-48C3-B55F-683E970F86C5}">
   <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <cols>
@@ -3844,234 +3831,234 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>66</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="C3" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="D4" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="D5" s="56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="D6" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="56" t="s">
         <v>93</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="55"/>
       <c r="D7" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="56" t="s">
         <v>102</v>
-      </c>
-      <c r="J7" s="56" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="D8" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="56" t="s">
         <v>106</v>
-      </c>
-      <c r="J8" s="56" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="E9" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J9" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="E10" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="C11" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="C12" s="55"/>
       <c r="D12" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="C13" s="55"/>
       <c r="E13" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="E14" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="E15" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="D16" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="E17" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="E18" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="E19" s="56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="D20" s="56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="E21" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="D22" s="56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="E23" s="56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="55" t="s">
         <v>68</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="C27" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="D28" s="56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="E29" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="F30" s="56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="F31" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="E32" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="4:7">
       <c r="F33" s="56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="G34" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="4:7">
       <c r="G35" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="4:7">
       <c r="G36" s="56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="4:7">
       <c r="F37" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="4:7">
       <c r="G38" s="56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="4:7">
       <c r="G39" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="4:7">
       <c r="E40" s="55"/>
       <c r="G40" s="56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="4:7">
       <c r="G41" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="4:7">
       <c r="F42" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="4:7">
       <c r="D43" s="55"/>
       <c r="G43" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/otherPage/ReversiblePuzzle/設計書.xlsx
+++ b/otherPage/ReversiblePuzzle/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vbbeatProject\homePage\otherPage\ReversiblePuzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFD36FE-1082-4034-BA43-EC938A58611C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1219834F-8F51-45C5-9C0D-1922E9A811F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>反転パズル</t>
     <rPh sb="0" eb="2">
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規作成</t>
     <rPh sb="0" eb="4">
       <t>シンキサクセイ</t>
@@ -499,10 +495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>boolean allGreenFlg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メソッド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -532,10 +524,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>int[][] puzzleGroup</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Puzzle</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -774,6 +762,46 @@
     <rPh sb="5" eb="9">
       <t>ハンテンカイスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>puzzleGroup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allGreenFlg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n*nの二次元配列</t>
+    <rPh sb="4" eb="9">
+      <t>ニジゲンハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bool値</t>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tableを用いて隙間1pxくらいにしてほしい</t>
+    <rPh sb="6" eb="7">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スキマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021/8/4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1503,7 +1531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E5B871-AAEB-4F8D-A011-E4A85778BECE}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="90" zoomScaleSheetLayoutView="160" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="90" zoomScaleSheetLayoutView="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <sheetData>
@@ -1533,11 +1561,11 @@
     <row r="2" spans="1:17">
       <c r="A2" s="46"/>
       <c r="B2" s="47" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -1852,7 +1880,9 @@
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>114</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1880,7 +1910,9 @@
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1912,7 +1944,9 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -3582,7 +3616,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -3590,7 +3624,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -3598,12 +3632,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -3611,7 +3645,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -3619,7 +3653,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -3627,7 +3661,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3638,52 +3672,55 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31CCB736-197E-4817-8713-F930A1909788}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
   <dimension ref="B2:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -3698,117 +3735,117 @@
     </row>
     <row r="14" spans="2:5">
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="4:7">
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="4:7">
       <c r="F18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="4:7">
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="4:7">
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="4:7">
       <c r="E21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="4:7">
       <c r="F22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="4:7">
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="4:7">
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="4:7">
       <c r="D25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="4:7">
       <c r="D27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="4:7">
       <c r="E28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="4:7">
       <c r="F29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="4:7">
       <c r="G30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="4:7">
       <c r="G31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="4:7">
       <c r="G32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="D34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="D36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3820,9 +3857,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0848672C-D828-48C3-B55F-683E970F86C5}">
-  <dimension ref="B2:J43"/>
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18"/>
   <cols>
@@ -3831,234 +3873,240 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>65</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:10">
       <c r="C3" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="D4" s="56" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J4" s="56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="D5" s="56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J5" s="56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="D6" s="56" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="C7" s="55"/>
       <c r="D7" s="56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J7" s="56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="D8" s="56" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J8" s="56" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="E9" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="56" t="s">
         <v>107</v>
-      </c>
-      <c r="J9" s="56" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="E10" s="56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J10" s="56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="C11" s="55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="C12" s="55"/>
       <c r="D12" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="C13" s="55"/>
       <c r="E13" s="56" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="E14" s="56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="E15" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="D16" s="56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="E17" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="E18" s="56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="E17" s="56" t="s">
+    <row r="19" spans="2:11">
+      <c r="E19" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="D20" s="56" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="E18" s="56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="E19" s="56" t="s">
+    <row r="21" spans="2:11">
+      <c r="E21" s="56" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="D20" s="56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="E21" s="56" t="s">
+    <row r="22" spans="2:11">
+      <c r="D22" s="56" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="D22" s="56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:11">
       <c r="E23" s="56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="55" t="s">
+    </row>
+    <row r="27" spans="2:11">
+      <c r="C27" s="55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
-      <c r="C27" s="55" t="s">
+    <row r="28" spans="2:11">
+      <c r="D28" s="56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="E29" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="D28" s="56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="E29" s="55" t="s">
+    <row r="30" spans="2:11">
+      <c r="F30" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="K30" s="56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="F31" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="E32" s="55" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="F30" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="F31" s="56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="E32" s="55" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="33" spans="4:7">
       <c r="F33" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="4:7">
       <c r="G34" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="4:7">
       <c r="G35" s="56" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="4:7">
       <c r="G36" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="4:7">
       <c r="F37" s="56" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="4:7">
       <c r="G38" s="56" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="4:7">
       <c r="G39" s="56" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="4:7">
       <c r="E40" s="55"/>
       <c r="G40" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="4:7">
       <c r="G41" s="56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="4:7">
       <c r="F42" s="56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="4:7">
       <c r="D43" s="55"/>
       <c r="G43" s="56" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
